--- a/Code/Results/Cases/Case_1_114/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_114/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.10809247756182</v>
+        <v>19.84653948155325</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>8.367350584253028</v>
+        <v>8.910844356079908</v>
       </c>
       <c r="E2">
-        <v>16.59313426171087</v>
+        <v>15.92850303485443</v>
       </c>
       <c r="F2">
-        <v>26.72177968943254</v>
+        <v>39.01998439058193</v>
       </c>
       <c r="G2">
-        <v>40.73539663514538</v>
+        <v>46.50900457544447</v>
       </c>
       <c r="H2">
-        <v>12.11615743661744</v>
+        <v>18.46127169951713</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>10.40421947153248</v>
+        <v>11.6844617226592</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>13.37660412426309</v>
+        <v>12.05297736057702</v>
       </c>
       <c r="M2">
-        <v>16.91308340531412</v>
+        <v>18.47201947769856</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.92616341121897</v>
+        <v>19.53774408452444</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>8.044606467716967</v>
+        <v>8.815742727046159</v>
       </c>
       <c r="E3">
-        <v>15.95091294031309</v>
+        <v>15.7197458694059</v>
       </c>
       <c r="F3">
-        <v>26.25499363421303</v>
+        <v>39.18117701767221</v>
       </c>
       <c r="G3">
-        <v>38.9322152868212</v>
+        <v>46.46131388297334</v>
       </c>
       <c r="H3">
-        <v>11.94020582635642</v>
+        <v>18.52544070691826</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.12333206709114</v>
+        <v>11.60974676381659</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>12.49603249376575</v>
+        <v>11.80223657257622</v>
       </c>
       <c r="M3">
-        <v>15.98277803307746</v>
+        <v>18.25308771262805</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.17043189890007</v>
+        <v>19.34838208757212</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>7.841434323612016</v>
+        <v>8.756255722171353</v>
       </c>
       <c r="E4">
-        <v>15.54595893423937</v>
+        <v>15.58991593133557</v>
       </c>
       <c r="F4">
-        <v>26.01364981714778</v>
+        <v>39.29422538926107</v>
       </c>
       <c r="G4">
-        <v>37.86157789857965</v>
+        <v>46.45405802289123</v>
       </c>
       <c r="H4">
-        <v>11.84882638931644</v>
+        <v>18.57026407580117</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>9.948613553491329</v>
+        <v>11.5639513373112</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>11.92628425395577</v>
+        <v>11.64639935138364</v>
       </c>
       <c r="M4">
-        <v>15.38964179394199</v>
+        <v>18.11927595430853</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.85508684073309</v>
+        <v>19.27136255627308</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>7.757414462076717</v>
+        <v>8.731750361627721</v>
       </c>
       <c r="E5">
-        <v>15.37838954284134</v>
+        <v>15.53663287888061</v>
       </c>
       <c r="F5">
-        <v>25.9262519858528</v>
+        <v>39.34380778399441</v>
       </c>
       <c r="G5">
-        <v>37.43486249365849</v>
+        <v>46.45661706663344</v>
       </c>
       <c r="H5">
-        <v>11.81561170795119</v>
+        <v>18.58988647869719</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>9.876898737126579</v>
+        <v>11.54531904094648</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>11.68674911458925</v>
+        <v>11.58249678112594</v>
       </c>
       <c r="M5">
-        <v>15.14258789794764</v>
+        <v>18.06495088474836</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.80228452179599</v>
+        <v>19.25858494792694</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>7.743390195324623</v>
+        <v>8.727665655681417</v>
       </c>
       <c r="E6">
-        <v>15.35041503556323</v>
+        <v>15.52776369759192</v>
       </c>
       <c r="F6">
-        <v>25.91238770383089</v>
+        <v>39.3522524065922</v>
       </c>
       <c r="G6">
-        <v>37.36459721734268</v>
+        <v>46.4573743218571</v>
       </c>
       <c r="H6">
-        <v>11.81033441834874</v>
+        <v>18.59322647809321</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>9.864961011431681</v>
+        <v>11.54222723617338</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>11.64652892905061</v>
+        <v>11.5718640497228</v>
       </c>
       <c r="M6">
-        <v>15.10124770585499</v>
+        <v>18.05594404695713</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.16620865212687</v>
+        <v>19.3473426649883</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>7.840306112561255</v>
+        <v>8.755926287947956</v>
       </c>
       <c r="E7">
-        <v>15.5437091663945</v>
+        <v>15.58919880883804</v>
       </c>
       <c r="F7">
-        <v>26.0124273955862</v>
+        <v>39.29487987963222</v>
       </c>
       <c r="G7">
-        <v>37.85578374337845</v>
+        <v>46.45407023761566</v>
       </c>
       <c r="H7">
-        <v>11.8483623796817</v>
+        <v>18.57052322774323</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>9.947648398336677</v>
+        <v>11.56369992269176</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>11.92308364592925</v>
+        <v>11.64553904731974</v>
       </c>
       <c r="M7">
-        <v>15.38633132951089</v>
+        <v>18.11854241424372</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.70687991657956</v>
+        <v>19.74006892082435</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>8.257123742950116</v>
+        <v>8.878287101525331</v>
       </c>
       <c r="E8">
-        <v>16.37396966549369</v>
+        <v>15.85688975533542</v>
       </c>
       <c r="F8">
-        <v>26.55119115961729</v>
+        <v>39.07262737704752</v>
       </c>
       <c r="G8">
-        <v>40.10630374524929</v>
+        <v>46.48797782772143</v>
       </c>
       <c r="H8">
-        <v>12.0519360709907</v>
+        <v>18.48226728408884</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>10.30786543518367</v>
+        <v>11.65868923026077</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>13.07898506930641</v>
+        <v>11.96695679944675</v>
       </c>
       <c r="M8">
-        <v>16.59695073009194</v>
+        <v>18.39643464326359</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.48515107594505</v>
+        <v>20.50834290138347</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>9.033958759908515</v>
+        <v>9.10907264295537</v>
       </c>
       <c r="E9">
-        <v>17.91355924509763</v>
+        <v>16.36704215909221</v>
       </c>
       <c r="F9">
-        <v>27.98401139536435</v>
+        <v>38.74955949679745</v>
       </c>
       <c r="G9">
-        <v>44.79499569621954</v>
+        <v>46.72988691563872</v>
       </c>
       <c r="H9">
-        <v>12.59022887501788</v>
+        <v>18.35254229632689</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>10.99451822956524</v>
+        <v>11.84517266795913</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>15.11777168650536</v>
+        <v>12.57916592959819</v>
       </c>
       <c r="M9">
-        <v>18.79304238494023</v>
+        <v>18.94404390958547</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>24.37524368030922</v>
+        <v>21.06673212803965</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>9.579855356159603</v>
+        <v>9.272418272820323</v>
       </c>
       <c r="E10">
-        <v>18.9868773147834</v>
+        <v>16.73065471749251</v>
       </c>
       <c r="F10">
-        <v>29.28721562590848</v>
+        <v>38.58237555102235</v>
       </c>
       <c r="G10">
-        <v>48.39530131846796</v>
+        <v>47.01489267881765</v>
       </c>
       <c r="H10">
-        <v>13.07955329240774</v>
+        <v>18.28406953497409</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>11.48508403664766</v>
+        <v>11.98174210329314</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>16.48137141521985</v>
+        <v>13.01393286294966</v>
       </c>
       <c r="M10">
-        <v>20.52141069443745</v>
+        <v>19.34506522117598</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25.20250361815706</v>
+        <v>21.31844136765538</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>9.823063884117245</v>
+        <v>9.345251498545514</v>
       </c>
       <c r="E11">
-        <v>19.46230269779495</v>
+        <v>16.89319932431407</v>
       </c>
       <c r="F11">
-        <v>29.93858148294684</v>
+        <v>38.52184159579334</v>
       </c>
       <c r="G11">
-        <v>50.06681175806168</v>
+        <v>47.16774325333802</v>
       </c>
       <c r="H11">
-        <v>13.32443117933386</v>
+        <v>18.2588290149945</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>11.70501636627213</v>
+        <v>12.04365434347299</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>17.07379362651359</v>
+        <v>13.20768635744595</v>
       </c>
       <c r="M11">
-        <v>21.27173556322379</v>
+        <v>19.52660552482877</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>25.51114878931151</v>
+        <v>21.41334594372605</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>9.914465077974183</v>
+        <v>9.372609168599281</v>
       </c>
       <c r="E12">
-        <v>19.64049608621613</v>
+        <v>16.95430343351328</v>
       </c>
       <c r="F12">
-        <v>30.19398972332699</v>
+        <v>38.50117216726137</v>
       </c>
       <c r="G12">
-        <v>50.70480265442717</v>
+        <v>47.22893869029481</v>
       </c>
       <c r="H12">
-        <v>13.42052492920519</v>
+        <v>18.25012689666875</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>11.78782934531899</v>
+        <v>12.06705784568167</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>17.29423738968764</v>
+        <v>13.28041808873253</v>
       </c>
       <c r="M12">
-        <v>21.550856698554</v>
+        <v>19.59517270344213</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>25.44488067619297</v>
+        <v>21.39292613095069</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>9.894810360863302</v>
+        <v>9.366727277689478</v>
       </c>
       <c r="E13">
-        <v>19.60220041762683</v>
+        <v>16.94116405506581</v>
       </c>
       <c r="F13">
-        <v>30.13858826753364</v>
+        <v>38.50552314027752</v>
       </c>
       <c r="G13">
-        <v>50.56717164576606</v>
+        <v>47.21561219024106</v>
       </c>
       <c r="H13">
-        <v>13.39967714636355</v>
+        <v>18.25196288914523</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>11.77001500495612</v>
+        <v>12.06201948804482</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>17.2469320427517</v>
+        <v>13.26478331606923</v>
       </c>
       <c r="M13">
-        <v>21.49096318764874</v>
+        <v>19.580414254259</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>25.22798816622052</v>
+        <v>21.32625793727349</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>9.830597187562704</v>
+        <v>9.347506754318037</v>
       </c>
       <c r="E14">
-        <v>19.47699952577101</v>
+        <v>16.89823557653922</v>
       </c>
       <c r="F14">
-        <v>29.95941671759788</v>
+        <v>38.52009582590849</v>
       </c>
       <c r="G14">
-        <v>50.1191972771195</v>
+        <v>47.1727115704236</v>
       </c>
       <c r="H14">
-        <v>13.33226849871559</v>
+        <v>18.25809589754961</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>11.71183886973533</v>
+        <v>12.04558065209969</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>17.09200698381198</v>
+        <v>13.2136831656056</v>
       </c>
       <c r="M14">
-        <v>21.29479850640496</v>
+        <v>19.53225044528131</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>25.09453595108296</v>
+        <v>21.28536571533957</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>9.791175518739937</v>
+        <v>9.33570431266363</v>
       </c>
       <c r="E15">
-        <v>19.40007135999311</v>
+        <v>16.87188125335787</v>
       </c>
       <c r="F15">
-        <v>29.85081875620642</v>
+        <v>38.52931611189442</v>
       </c>
       <c r="G15">
-        <v>49.84546286111478</v>
+        <v>47.14686452693611</v>
       </c>
       <c r="H15">
-        <v>13.29142175292091</v>
+        <v>18.26196419028248</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>11.67614301383654</v>
+        <v>12.03550569681165</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>16.99660754354184</v>
+        <v>13.1822979891305</v>
       </c>
       <c r="M15">
-        <v>21.1739942964742</v>
+        <v>19.5027240310307</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>24.32052966035486</v>
+        <v>21.05022897372486</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>9.563861075087519</v>
+        <v>9.267627868617955</v>
       </c>
       <c r="E16">
-        <v>18.95554880045518</v>
+        <v>16.7199712863962</v>
       </c>
       <c r="F16">
-        <v>29.24585320887281</v>
+        <v>38.5866457651016</v>
       </c>
       <c r="G16">
-        <v>48.28675390657517</v>
+        <v>47.00536869112765</v>
       </c>
       <c r="H16">
-        <v>13.06401173331716</v>
+        <v>18.28583849847717</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>11.47064518818906</v>
+        <v>11.97769078482249</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>16.44210370468576</v>
+        <v>13.00118443051191</v>
       </c>
       <c r="M16">
-        <v>20.47166527905094</v>
+        <v>19.33317893452751</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>23.83739658081196</v>
+        <v>20.90533133045764</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>9.423122358137126</v>
+        <v>9.225479985761227</v>
       </c>
       <c r="E17">
-        <v>18.67955763467687</v>
+        <v>16.62601964515119</v>
       </c>
       <c r="F17">
-        <v>28.88994977337233</v>
+        <v>38.62580636292603</v>
       </c>
       <c r="G17">
-        <v>47.33924456203587</v>
+        <v>46.92449465756808</v>
       </c>
       <c r="H17">
-        <v>12.93032060255182</v>
+        <v>18.3020024411266</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>11.34374415184858</v>
+        <v>11.9421608982432</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>16.09486951169852</v>
+        <v>12.8890025608949</v>
       </c>
       <c r="M17">
-        <v>20.03171469806387</v>
+        <v>19.22890501432757</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>23.55644133394493</v>
+        <v>20.82177773137446</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>9.341687644211277</v>
+        <v>9.201099570179732</v>
       </c>
       <c r="E18">
-        <v>18.51960505832232</v>
+        <v>16.57171359206687</v>
       </c>
       <c r="F18">
-        <v>28.69073248481965</v>
+        <v>38.64978998094939</v>
       </c>
       <c r="G18">
-        <v>46.79741486757513</v>
+        <v>46.88016358056598</v>
       </c>
       <c r="H18">
-        <v>12.85551233120259</v>
+        <v>18.31185525289462</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>11.27044989051173</v>
+        <v>11.92170554545458</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>15.8925170124106</v>
+        <v>12.82410306166925</v>
       </c>
       <c r="M18">
-        <v>19.77527583058823</v>
+        <v>19.16884895442039</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.46078617572848</v>
+        <v>20.79345397118414</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>9.31403090590633</v>
+        <v>9.192821401386519</v>
       </c>
       <c r="E19">
-        <v>18.4652403427973</v>
+        <v>16.55328166514464</v>
       </c>
       <c r="F19">
-        <v>28.62421379341703</v>
+        <v>38.65816040140397</v>
       </c>
       <c r="G19">
-        <v>46.61449945473818</v>
+        <v>46.86552974034037</v>
       </c>
       <c r="H19">
-        <v>12.83053732876896</v>
+        <v>18.31528649524243</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>11.24558184361953</v>
+        <v>11.914776687686</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>15.82354847472621</v>
+        <v>12.80206661239624</v>
       </c>
       <c r="M19">
-        <v>19.68786318251678</v>
+        <v>19.14850275184768</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>23.88914431203821</v>
+        <v>20.9207785009713</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>9.438154247161524</v>
+        <v>9.229981068623349</v>
       </c>
       <c r="E20">
-        <v>18.70906261349094</v>
+        <v>16.63604891437178</v>
       </c>
       <c r="F20">
-        <v>28.92726586309563</v>
+        <v>38.62148643759664</v>
       </c>
       <c r="G20">
-        <v>47.43978152066287</v>
+        <v>46.93287777563841</v>
       </c>
       <c r="H20">
-        <v>12.94433509690332</v>
+        <v>18.30022419784119</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>11.3572845413664</v>
+        <v>11.94594521036121</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>16.1321048490836</v>
+        <v>12.90098381713875</v>
       </c>
       <c r="M20">
-        <v>20.078898066835</v>
+        <v>19.24001384989732</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>25.29181948822251</v>
+        <v>21.34585181750485</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>9.849476656782608</v>
+        <v>9.353158416216381</v>
       </c>
       <c r="E21">
-        <v>19.51382382461402</v>
+        <v>16.91085715063471</v>
       </c>
       <c r="F21">
-        <v>30.0118035008791</v>
+        <v>38.51575414845956</v>
       </c>
       <c r="G21">
-        <v>50.25063951004396</v>
+        <v>47.18522278915757</v>
       </c>
       <c r="H21">
-        <v>13.35197543016563</v>
+        <v>18.25627120615321</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>11.72893938031791</v>
+        <v>12.05041034201367</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>17.1376169019569</v>
+        <v>13.22871030399646</v>
       </c>
       <c r="M21">
-        <v>21.35255150584072</v>
+        <v>19.54640255770231</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>26.18167146590861</v>
+        <v>21.62122384220309</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>10.1142701412715</v>
+        <v>9.43235913767472</v>
       </c>
       <c r="E22">
-        <v>20.02907876115966</v>
+        <v>17.08783316855376</v>
       </c>
       <c r="F22">
-        <v>30.77178935711371</v>
+        <v>38.45979614031553</v>
       </c>
       <c r="G22">
-        <v>52.11720580738489</v>
+        <v>47.36944699958602</v>
       </c>
       <c r="H22">
-        <v>13.63808261447351</v>
+        <v>18.23253701870721</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>11.96909911375177</v>
+        <v>12.11843864733419</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>17.77214673172898</v>
+        <v>13.43915192114229</v>
       </c>
       <c r="M22">
-        <v>22.155835435059</v>
+        <v>19.7455840400023</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>25.70917090126197</v>
+        <v>21.47450149890969</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>9.973295929590639</v>
+        <v>9.390210911776222</v>
       </c>
       <c r="E23">
-        <v>19.75504824286409</v>
+        <v>16.99362966669968</v>
       </c>
       <c r="F23">
-        <v>30.36137079280218</v>
+        <v>38.4884523987688</v>
       </c>
       <c r="G23">
-        <v>51.11817887516027</v>
+        <v>47.26936622126458</v>
       </c>
       <c r="H23">
-        <v>13.48352403473804</v>
+        <v>18.24474566477574</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>11.8411711319388</v>
+        <v>12.0821566161843</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>17.43551454897407</v>
+        <v>13.32719678762981</v>
       </c>
       <c r="M23">
-        <v>21.7297171214673</v>
+        <v>19.63939066396748</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>23.86575912052398</v>
+        <v>20.91379560775219</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>9.431359959310992</v>
+        <v>9.227946592453575</v>
       </c>
       <c r="E24">
-        <v>18.69572740445751</v>
+        <v>16.63151558852948</v>
       </c>
       <c r="F24">
-        <v>28.91037847534281</v>
+        <v>38.62343489982077</v>
       </c>
       <c r="G24">
-        <v>47.39431972108719</v>
+        <v>46.92908102451601</v>
       </c>
       <c r="H24">
-        <v>12.93799276270636</v>
+        <v>18.30102639800928</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>11.35116398082579</v>
+        <v>11.94423441159398</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>16.11527924299134</v>
+        <v>12.89556834699462</v>
       </c>
       <c r="M24">
-        <v>20.05757739587661</v>
+        <v>19.2349918766058</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.76003720509508</v>
+        <v>20.30122030251426</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>8.828207279222253</v>
+        <v>9.047685575239786</v>
       </c>
       <c r="E25">
-        <v>17.50702794229852</v>
+        <v>16.23084476237261</v>
       </c>
       <c r="F25">
-        <v>27.55382233572915</v>
+        <v>38.82473405697056</v>
       </c>
       <c r="G25">
-        <v>43.49876257642825</v>
+        <v>46.64559765273896</v>
       </c>
       <c r="H25">
-        <v>12.42876342753912</v>
+        <v>18.38295231258419</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>10.8110994745167</v>
+        <v>11.7947599455838</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>14.59019003668745</v>
+        <v>12.41591045039407</v>
       </c>
       <c r="M25">
-        <v>18.2178508701696</v>
+        <v>18.79592034185512</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_114/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_114/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19.84653948155325</v>
+        <v>20.10809247756183</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>8.910844356079908</v>
+        <v>8.367350584253064</v>
       </c>
       <c r="E2">
-        <v>15.92850303485443</v>
+        <v>16.59313426171093</v>
       </c>
       <c r="F2">
-        <v>39.01998439058193</v>
+        <v>26.72177968943267</v>
       </c>
       <c r="G2">
-        <v>46.50900457544447</v>
+        <v>40.73539663514548</v>
       </c>
       <c r="H2">
-        <v>18.46127169951713</v>
+        <v>12.11615743661746</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>11.6844617226592</v>
+        <v>10.40421947153251</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>12.05297736057702</v>
+        <v>13.37660412426306</v>
       </c>
       <c r="M2">
-        <v>18.47201947769856</v>
+        <v>16.91308340531412</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.53774408452444</v>
+        <v>18.92616341121897</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>8.815742727046159</v>
+        <v>8.044606467717017</v>
       </c>
       <c r="E3">
-        <v>15.7197458694059</v>
+        <v>15.95091294031309</v>
       </c>
       <c r="F3">
-        <v>39.18117701767221</v>
+        <v>26.254993634213</v>
       </c>
       <c r="G3">
-        <v>46.46131388297334</v>
+        <v>38.93221528682125</v>
       </c>
       <c r="H3">
-        <v>18.52544070691826</v>
+        <v>11.94020582635638</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>11.60974676381659</v>
+        <v>10.12333206709114</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>11.80223657257622</v>
+        <v>12.49603249376576</v>
       </c>
       <c r="M3">
-        <v>18.25308771262805</v>
+        <v>15.98277803307748</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.34838208757212</v>
+        <v>18.17043189890006</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>8.756255722171353</v>
+        <v>7.84143432361201</v>
       </c>
       <c r="E4">
-        <v>15.58991593133557</v>
+        <v>15.54595893423932</v>
       </c>
       <c r="F4">
-        <v>39.29422538926107</v>
+        <v>26.01364981714777</v>
       </c>
       <c r="G4">
-        <v>46.45405802289123</v>
+        <v>37.86157789857965</v>
       </c>
       <c r="H4">
-        <v>18.57026407580117</v>
+        <v>11.84882638931643</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>11.5639513373112</v>
+        <v>9.948613553491304</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>11.64639935138364</v>
+        <v>11.92628425395577</v>
       </c>
       <c r="M4">
-        <v>18.11927595430853</v>
+        <v>15.38964179394197</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.27136255627308</v>
+        <v>17.85508684073305</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>8.731750361627721</v>
+        <v>7.757414462076777</v>
       </c>
       <c r="E5">
-        <v>15.53663287888061</v>
+        <v>15.37838954284127</v>
       </c>
       <c r="F5">
-        <v>39.34380778399441</v>
+        <v>25.92625198585286</v>
       </c>
       <c r="G5">
-        <v>46.45661706663344</v>
+        <v>37.43486249365855</v>
       </c>
       <c r="H5">
-        <v>18.58988647869719</v>
+        <v>11.8156117079512</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>11.54531904094648</v>
+        <v>9.876898737126513</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>11.58249678112594</v>
+        <v>11.68674911458922</v>
       </c>
       <c r="M5">
-        <v>18.06495088474836</v>
+        <v>15.14258789794763</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19.25858494792694</v>
+        <v>17.80228452179604</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>8.727665655681417</v>
+        <v>7.743390195324512</v>
       </c>
       <c r="E6">
-        <v>15.52776369759192</v>
+        <v>15.35041503556322</v>
       </c>
       <c r="F6">
-        <v>39.3522524065922</v>
+        <v>25.91238770383098</v>
       </c>
       <c r="G6">
-        <v>46.4573743218571</v>
+        <v>37.36459721734283</v>
       </c>
       <c r="H6">
-        <v>18.59322647809321</v>
+        <v>11.81033441834879</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>11.54222723617338</v>
+        <v>9.864961011431758</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>11.5718640497228</v>
+        <v>11.64652892905061</v>
       </c>
       <c r="M6">
-        <v>18.05594404695713</v>
+        <v>15.10124770585499</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.3473426649883</v>
+        <v>18.16620865212684</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>8.755926287947956</v>
+        <v>7.840306112561195</v>
       </c>
       <c r="E7">
-        <v>15.58919880883804</v>
+        <v>15.54370916639441</v>
       </c>
       <c r="F7">
-        <v>39.29487987963222</v>
+        <v>26.01242739558624</v>
       </c>
       <c r="G7">
-        <v>46.45407023761566</v>
+        <v>37.85578374337852</v>
       </c>
       <c r="H7">
-        <v>18.57052322774323</v>
+        <v>11.84836237968179</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>11.56369992269176</v>
+        <v>9.947648398336629</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>11.64553904731974</v>
+        <v>11.92308364592926</v>
       </c>
       <c r="M7">
-        <v>18.11854241424372</v>
+        <v>15.38633132951088</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.74006892082435</v>
+        <v>19.70687991657957</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>8.878287101525331</v>
+        <v>8.257123742950052</v>
       </c>
       <c r="E8">
-        <v>15.85688975533542</v>
+        <v>16.37396966549373</v>
       </c>
       <c r="F8">
-        <v>39.07262737704752</v>
+        <v>26.55119115961725</v>
       </c>
       <c r="G8">
-        <v>46.48797782772143</v>
+        <v>40.10630374524931</v>
       </c>
       <c r="H8">
-        <v>18.48226728408884</v>
+        <v>12.05193607099067</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>11.65868923026077</v>
+        <v>10.30786543518374</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>11.96695679944675</v>
+        <v>13.07898506930645</v>
       </c>
       <c r="M8">
-        <v>18.39643464326359</v>
+        <v>16.59695073009194</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.50834290138347</v>
+        <v>22.48515107594503</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>9.10907264295537</v>
+        <v>9.033958759908581</v>
       </c>
       <c r="E9">
-        <v>16.36704215909221</v>
+        <v>17.91355924509751</v>
       </c>
       <c r="F9">
-        <v>38.74955949679745</v>
+        <v>27.98401139536426</v>
       </c>
       <c r="G9">
-        <v>46.72988691563872</v>
+        <v>44.79499569621958</v>
       </c>
       <c r="H9">
-        <v>18.35254229632689</v>
+        <v>12.59022887501785</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>11.84517266795913</v>
+        <v>10.99451822956517</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>12.57916592959819</v>
+        <v>15.11777168650539</v>
       </c>
       <c r="M9">
-        <v>18.94404390958547</v>
+        <v>18.79304238494031</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>21.06673212803965</v>
+        <v>24.37524368030922</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>9.272418272820323</v>
+        <v>9.579855356159635</v>
       </c>
       <c r="E10">
-        <v>16.73065471749251</v>
+        <v>18.98687731478343</v>
       </c>
       <c r="F10">
-        <v>38.58237555102235</v>
+        <v>29.28721562590845</v>
       </c>
       <c r="G10">
-        <v>47.01489267881765</v>
+        <v>48.39530131846787</v>
       </c>
       <c r="H10">
-        <v>18.28406953497409</v>
+        <v>13.07955329240773</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>11.98174210329314</v>
+        <v>11.48508403664763</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>13.01393286294966</v>
+        <v>16.48137141521982</v>
       </c>
       <c r="M10">
-        <v>19.34506522117598</v>
+        <v>20.52141069443745</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>21.31844136765538</v>
+        <v>25.20250361815708</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>9.345251498545514</v>
+        <v>9.823063884117245</v>
       </c>
       <c r="E11">
-        <v>16.89319932431407</v>
+        <v>19.46230269779497</v>
       </c>
       <c r="F11">
-        <v>38.52184159579334</v>
+        <v>29.93858148294673</v>
       </c>
       <c r="G11">
-        <v>47.16774325333802</v>
+        <v>50.06681175806169</v>
       </c>
       <c r="H11">
-        <v>18.2588290149945</v>
+        <v>13.32443117933384</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>12.04365434347299</v>
+        <v>11.7050163662721</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>13.20768635744595</v>
+        <v>17.0737936265136</v>
       </c>
       <c r="M11">
-        <v>19.52660552482877</v>
+        <v>21.27173556322385</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>21.41334594372605</v>
+        <v>25.51114878931149</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>9.372609168599281</v>
+        <v>9.914465077974244</v>
       </c>
       <c r="E12">
-        <v>16.95430343351328</v>
+        <v>19.64049608621614</v>
       </c>
       <c r="F12">
-        <v>38.50117216726137</v>
+        <v>30.19398972332703</v>
       </c>
       <c r="G12">
-        <v>47.22893869029481</v>
+        <v>50.70480265442722</v>
       </c>
       <c r="H12">
-        <v>18.25012689666875</v>
+        <v>13.42052492920518</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>12.06705784568167</v>
+        <v>11.78782934531902</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>13.28041808873253</v>
+        <v>17.29423738968763</v>
       </c>
       <c r="M12">
-        <v>19.59517270344213</v>
+        <v>21.55085669855397</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>21.39292613095069</v>
+        <v>25.44488067619294</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>9.366727277689478</v>
+        <v>9.89481036086335</v>
       </c>
       <c r="E13">
-        <v>16.94116405506581</v>
+        <v>19.60220041762682</v>
       </c>
       <c r="F13">
-        <v>38.50552314027752</v>
+        <v>30.13858826753365</v>
       </c>
       <c r="G13">
-        <v>47.21561219024106</v>
+        <v>50.56717164576611</v>
       </c>
       <c r="H13">
-        <v>18.25196288914523</v>
+        <v>13.39967714636356</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>12.06201948804482</v>
+        <v>11.77001500495611</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>13.26478331606923</v>
+        <v>17.24693204275169</v>
       </c>
       <c r="M13">
-        <v>19.580414254259</v>
+        <v>21.49096318764873</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>21.32625793727349</v>
+        <v>25.22798816622052</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>9.347506754318037</v>
+        <v>9.830597187562791</v>
       </c>
       <c r="E14">
-        <v>16.89823557653922</v>
+        <v>19.47699952577107</v>
       </c>
       <c r="F14">
-        <v>38.52009582590849</v>
+        <v>29.95941671759791</v>
       </c>
       <c r="G14">
-        <v>47.1727115704236</v>
+        <v>50.11919727711967</v>
       </c>
       <c r="H14">
-        <v>18.25809589754961</v>
+        <v>13.33226849871559</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>12.04558065209969</v>
+        <v>11.71183886973535</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>13.2136831656056</v>
+        <v>17.09200698381202</v>
       </c>
       <c r="M14">
-        <v>19.53225044528131</v>
+        <v>21.29479850640498</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>21.28536571533957</v>
+        <v>25.09453595108296</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>9.33570431266363</v>
+        <v>9.791175518739887</v>
       </c>
       <c r="E15">
-        <v>16.87188125335787</v>
+        <v>19.40007135999304</v>
       </c>
       <c r="F15">
-        <v>38.52931611189442</v>
+        <v>29.85081875620638</v>
       </c>
       <c r="G15">
-        <v>47.14686452693611</v>
+        <v>49.84546286111475</v>
       </c>
       <c r="H15">
-        <v>18.26196419028248</v>
+        <v>13.29142175292089</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>12.03550569681165</v>
+        <v>11.67614301383652</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>13.1822979891305</v>
+        <v>16.99660754354186</v>
       </c>
       <c r="M15">
-        <v>19.5027240310307</v>
+        <v>21.17399429647422</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.05022897372486</v>
+        <v>24.32052966035487</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>9.267627868617955</v>
+        <v>9.563861075087509</v>
       </c>
       <c r="E16">
-        <v>16.7199712863962</v>
+        <v>18.95554880045506</v>
       </c>
       <c r="F16">
-        <v>38.5866457651016</v>
+        <v>29.24585320887286</v>
       </c>
       <c r="G16">
-        <v>47.00536869112765</v>
+        <v>48.28675390657525</v>
       </c>
       <c r="H16">
-        <v>18.28583849847717</v>
+        <v>13.06401173331718</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>11.97769078482249</v>
+        <v>11.47064518818894</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>13.00118443051191</v>
+        <v>16.4421037046858</v>
       </c>
       <c r="M16">
-        <v>19.33317893452751</v>
+        <v>20.47166527905096</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>20.90533133045764</v>
+        <v>23.83739658081193</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>9.225479985761227</v>
+        <v>9.423122358137112</v>
       </c>
       <c r="E17">
-        <v>16.62601964515119</v>
+        <v>18.67955763467688</v>
       </c>
       <c r="F17">
-        <v>38.62580636292603</v>
+        <v>28.88994977337225</v>
       </c>
       <c r="G17">
-        <v>46.92449465756808</v>
+        <v>47.33924456203587</v>
       </c>
       <c r="H17">
-        <v>18.3020024411266</v>
+        <v>12.9303206025518</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>11.9421608982432</v>
+        <v>11.34374415184863</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>12.8890025608949</v>
+        <v>16.0948695116986</v>
       </c>
       <c r="M17">
-        <v>19.22890501432757</v>
+        <v>20.03171469806389</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>20.82177773137446</v>
+        <v>23.55644133394495</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>9.201099570179732</v>
+        <v>9.341687644211333</v>
       </c>
       <c r="E18">
-        <v>16.57171359206687</v>
+        <v>18.51960505832229</v>
       </c>
       <c r="F18">
-        <v>38.64978998094939</v>
+        <v>28.6907324848196</v>
       </c>
       <c r="G18">
-        <v>46.88016358056598</v>
+        <v>46.79741486757511</v>
       </c>
       <c r="H18">
-        <v>18.31185525289462</v>
+        <v>12.8555123312026</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>11.92170554545458</v>
+        <v>11.27044989051169</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>12.82410306166925</v>
+        <v>15.89251701241064</v>
       </c>
       <c r="M18">
-        <v>19.16884895442039</v>
+        <v>19.77527583058826</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>20.79345397118414</v>
+        <v>23.4607861757285</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>9.192821401386519</v>
+        <v>9.314030905906435</v>
       </c>
       <c r="E19">
-        <v>16.55328166514464</v>
+        <v>18.46524034279727</v>
       </c>
       <c r="F19">
-        <v>38.65816040140397</v>
+        <v>28.62421379341708</v>
       </c>
       <c r="G19">
-        <v>46.86552974034037</v>
+        <v>46.61449945473813</v>
       </c>
       <c r="H19">
-        <v>18.31528649524243</v>
+        <v>12.83053732876897</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>11.914776687686</v>
+        <v>11.24558184361947</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>12.80206661239624</v>
+        <v>15.82354847472616</v>
       </c>
       <c r="M19">
-        <v>19.14850275184768</v>
+        <v>19.68786318251679</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>20.9207785009713</v>
+        <v>23.88914431203818</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>9.229981068623349</v>
+        <v>9.438154247161526</v>
       </c>
       <c r="E20">
-        <v>16.63604891437178</v>
+        <v>18.70906261349105</v>
       </c>
       <c r="F20">
-        <v>38.62148643759664</v>
+        <v>28.92726586309563</v>
       </c>
       <c r="G20">
-        <v>46.93287777563841</v>
+        <v>47.43978152066294</v>
       </c>
       <c r="H20">
-        <v>18.30022419784119</v>
+        <v>12.94433509690332</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>11.94594521036121</v>
+        <v>11.35728454136647</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>12.90098381713875</v>
+        <v>16.13210484908357</v>
       </c>
       <c r="M20">
-        <v>19.24001384989732</v>
+        <v>20.07889806683497</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>21.34585181750485</v>
+        <v>25.29181948822247</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>9.353158416216381</v>
+        <v>9.849476656782562</v>
       </c>
       <c r="E21">
-        <v>16.91085715063471</v>
+        <v>19.51382382461404</v>
       </c>
       <c r="F21">
-        <v>38.51575414845956</v>
+        <v>30.01180350087912</v>
       </c>
       <c r="G21">
-        <v>47.18522278915757</v>
+        <v>50.25063951004402</v>
       </c>
       <c r="H21">
-        <v>18.25627120615321</v>
+        <v>13.35197543016561</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>12.05041034201367</v>
+        <v>11.7289393803179</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>13.22871030399646</v>
+        <v>17.13761690195691</v>
       </c>
       <c r="M21">
-        <v>19.54640255770231</v>
+        <v>21.35255150584073</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>21.62122384220309</v>
+        <v>26.1816714659086</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>9.43235913767472</v>
+        <v>10.11427014127143</v>
       </c>
       <c r="E22">
-        <v>17.08783316855376</v>
+        <v>20.02907876115962</v>
       </c>
       <c r="F22">
-        <v>38.45979614031553</v>
+        <v>30.77178935711371</v>
       </c>
       <c r="G22">
-        <v>47.36944699958602</v>
+        <v>52.11720580738478</v>
       </c>
       <c r="H22">
-        <v>18.23253701870721</v>
+        <v>13.63808261447352</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>12.11843864733419</v>
+        <v>11.9690991137518</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>13.43915192114229</v>
+        <v>17.77214673172898</v>
       </c>
       <c r="M22">
-        <v>19.7455840400023</v>
+        <v>22.15583543505899</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>21.47450149890969</v>
+        <v>25.70917090126195</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>9.390210911776222</v>
+        <v>9.973295929590501</v>
       </c>
       <c r="E23">
-        <v>16.99362966669968</v>
+        <v>19.75504824286413</v>
       </c>
       <c r="F23">
-        <v>38.4884523987688</v>
+        <v>30.36137079280216</v>
       </c>
       <c r="G23">
-        <v>47.26936622126458</v>
+        <v>51.11817887516025</v>
       </c>
       <c r="H23">
-        <v>18.24474566477574</v>
+        <v>13.48352403473802</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>12.0821566161843</v>
+        <v>11.84117113193887</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>13.32719678762981</v>
+        <v>17.43551454897409</v>
       </c>
       <c r="M23">
-        <v>19.63939066396748</v>
+        <v>21.72971712146726</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>20.91379560775219</v>
+        <v>23.86575912052394</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>9.227946592453575</v>
+        <v>9.431359959310999</v>
       </c>
       <c r="E24">
-        <v>16.63151558852948</v>
+        <v>18.6957274044576</v>
       </c>
       <c r="F24">
-        <v>38.62343489982077</v>
+        <v>28.91037847534281</v>
       </c>
       <c r="G24">
-        <v>46.92908102451601</v>
+        <v>47.39431972108717</v>
       </c>
       <c r="H24">
-        <v>18.30102639800928</v>
+        <v>12.93799276270637</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>11.94423441159398</v>
+        <v>11.35116398082589</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>12.89556834699462</v>
+        <v>16.11527924299134</v>
       </c>
       <c r="M24">
-        <v>19.2349918766058</v>
+        <v>20.0575773958766</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.30122030251426</v>
+        <v>21.76003720509505</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>9.047685575239786</v>
+        <v>8.828207279222088</v>
       </c>
       <c r="E25">
-        <v>16.23084476237261</v>
+        <v>17.50702794229847</v>
       </c>
       <c r="F25">
-        <v>38.82473405697056</v>
+        <v>27.5538223357292</v>
       </c>
       <c r="G25">
-        <v>46.64559765273896</v>
+        <v>43.49876257642833</v>
       </c>
       <c r="H25">
-        <v>18.38295231258419</v>
+        <v>12.42876342753912</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>11.7947599455838</v>
+        <v>10.81109947451669</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>12.41591045039407</v>
+        <v>14.59019003668745</v>
       </c>
       <c r="M25">
-        <v>18.79592034185512</v>
+        <v>18.21785087016957</v>
       </c>
       <c r="N25">
         <v>0</v>
